--- a/Klinisk/Samples_to_uppsala_extracted(AutoRecovered).xlsx
+++ b/Klinisk/Samples_to_uppsala_extracted(AutoRecovered).xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8300E68-9E36-714B-BEAC-83880DED939F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778521F1-8070-CA47-8DB6-ADA14CAC5FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="4" xr2:uid="{F960420D-8791-9D44-A32F-49D1F7E6781B}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="4" xr2:uid="{2ACFB147-6B77-474B-A81A-3BDCF790820D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{F960420D-8791-9D44-A32F-49D1F7E6781B}"/>
   </bookViews>
   <sheets>
     <sheet name="Box" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Box!$A$1:$N$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -878,6 +876,12 @@
   </si>
   <si>
     <t>Not enough</t>
+  </si>
+  <si>
+    <t>Vægt</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2212,15 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -2861,12 +2873,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4576F339-3343-3440-B83F-9D96FDDB1FAD}" name="Table1" displayName="Table1" ref="A1:N18" totalsRowShown="0" tableBorderDxfId="20">
-  <autoFilter ref="A1:N18" xr:uid="{AB140B1C-EDFA-DD4C-A91D-F4BD256B1BF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4576F339-3343-3440-B83F-9D96FDDB1FAD}" name="Table1" displayName="Table1" ref="A1:O18" totalsRowShown="0" tableBorderDxfId="21">
+  <autoFilter ref="A1:O18" xr:uid="{AB140B1C-EDFA-DD4C-A91D-F4BD256B1BF9}"/>
   <sortState ref="A2:N18">
     <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{6224A1F1-7AE3-4C47-B35D-FC522F209BCB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0CA3AB0E-26D6-4B4D-A7FA-7939C6E20555}" name="Navn"/>
     <tableColumn id="4" xr3:uid="{C3913214-B448-6D49-BC6D-7B3FA842922E}" name="Complete set in folder"/>
@@ -2879,15 +2891,16 @@
     <tableColumn id="11" xr3:uid="{6F54445A-6FB3-8E48-92D2-B0E198E76D57}" name="Diagnosis"/>
     <tableColumn id="12" xr3:uid="{2F603FAD-CC9F-3B4D-BEA5-364939DC961A}" name="Grade"/>
     <tableColumn id="13" xr3:uid="{4102FA63-3E7C-BC4F-A9AF-7A5BF266460A}" name="cfDNA"/>
-    <tableColumn id="14" xr3:uid="{5F817813-A873-4C4D-ADB3-989E467F56C2}" name="Sample date" dataDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{5601E604-9450-BA48-B1AC-36D5B2A38D70}" name="Notes2" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{5F817813-A873-4C4D-ADB3-989E467F56C2}" name="Sample date" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{5601E604-9450-BA48-B1AC-36D5B2A38D70}" name="Notes2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{14864916-2714-EC4D-AD9C-4B32D43F4FEC}" name="Vægt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7015F3-3CA5-D54F-8658-9F640A1E3844}" name="Table2" displayName="Table2" ref="C1:M19" totalsRowShown="0" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B7015F3-3CA5-D54F-8658-9F640A1E3844}" name="Table2" displayName="Table2" ref="C1:M19" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="C1:M19" xr:uid="{8E0FD02E-1483-ED41-938C-F8EC133C2B5F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2902,12 +2915,12 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B89064EB-CAAC-A14C-AFB6-2529AFA312FA}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FA6B1028-6E5C-1D44-9415-11C55204B6E5}" name="Normal" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C4D4E59E-6617-2145-8E8A-2B947F47C94E}" name="Tumor" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{262B3A2B-AC89-464E-8B7A-38FA40690838}" name="RIN" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{996E10E0-8F79-AE48-93C7-1E23F883B86C}" name="cfDNA" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0F02A162-92E5-DE4F-A6F5-B82E0CB9031E}" name="All" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B89064EB-CAAC-A14C-AFB6-2529AFA312FA}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FA6B1028-6E5C-1D44-9415-11C55204B6E5}" name="Normal" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C4D4E59E-6617-2145-8E8A-2B947F47C94E}" name="Tumor" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{262B3A2B-AC89-464E-8B7A-38FA40690838}" name="RIN" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{996E10E0-8F79-AE48-93C7-1E23F883B86C}" name="cfDNA" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0F02A162-92E5-DE4F-A6F5-B82E0CB9031E}" name="All" dataDxfId="4">
       <calculatedColumnFormula>IF(D2="No","No",
 IF(E2="No","No",
 IF(F2&lt;7,"No",
@@ -2915,9 +2928,9 @@
 ))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CF27FB8F-3C3E-9545-B1A2-71FFF086026B}" name="Full set"/>
-    <tableColumn id="8" xr3:uid="{D13FB077-CE18-F240-BDF1-1E2AFF64FE19}" name="Enough for pcr-free" dataDxfId="2" dataCellStyle="Bad"/>
-    <tableColumn id="9" xr3:uid="{4BF90F7B-F9EF-634E-A1F1-E9D265F1EFE6}" name="Malign" dataDxfId="1" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{D4256DC4-957C-9142-B4E9-BCAD7B6F79DD}" name="Diagnosis" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{D13FB077-CE18-F240-BDF1-1E2AFF64FE19}" name="Enough for pcr-free" dataDxfId="3" dataCellStyle="Bad"/>
+    <tableColumn id="9" xr3:uid="{4BF90F7B-F9EF-634E-A1F1-E9D265F1EFE6}" name="Malign" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{D4256DC4-957C-9142-B4E9-BCAD7B6F79DD}" name="Diagnosis" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{494B940A-55FB-EA4C-8AEC-D9843C6FBA98}" name="Grade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3229,9 +3242,6 @@
     <sheetView zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:I1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3647,11 +3657,8 @@
   </sheetPr>
   <dimension ref="A3:R30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4795,12 +4802,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J5:J7 J9:J23">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L7 L9:L24 D5:D17 D19:D25">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4813,11 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7E8B5-FAE9-E341-8D92-562442B76729}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4889,9 @@
       <c r="N1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O1"/>
+      <c r="O1" t="s">
+        <v>208</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
     </row>
@@ -4928,7 +4934,9 @@
         <v>43880</v>
       </c>
       <c r="N2" s="11"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1">
+        <v>34</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
     </row>
@@ -4971,7 +4979,9 @@
         <v>43878</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1">
+        <v>30</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
     </row>
@@ -5014,7 +5024,9 @@
         <v>43789</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1">
+        <v>10</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
     </row>
@@ -5055,6 +5067,9 @@
         <v>43868</v>
       </c>
       <c r="N5" s="12"/>
+      <c r="O5" s="1">
+        <v>23</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
     </row>
@@ -5097,7 +5112,9 @@
         <v>43836</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
     </row>
@@ -5634,9 +5651,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5866,11 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7AFEF3-A234-CA49-8C4E-398C21C01638}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6663,35 +6674,35 @@
     <sortCondition descending="1" ref="D2:D19"/>
   </sortState>
   <conditionalFormatting sqref="F2:F19">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F19">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E19">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThanOrEqual">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
       <formula>2</formula>
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H19">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
